--- a/Client/ExcelToJson/Excel/地图配置表.xlsx
+++ b/Client/ExcelToJson/Excel/地图配置表.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SVNCode\Xiao\RoguleLike\client\ExcelToJson\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F30A0E-52B6-4138-9713-E4183501560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15345" windowHeight="24975" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
     <sheet name="LevelConfig" sheetId="2" r:id="rId2"/>
-    <sheet name="MonsterConfig" sheetId="3" r:id="rId3"/>
-    <sheet name="LevelMonsterConfig" sheetId="4" r:id="rId4"/>
+    <sheet name="LevelMonsterConfig" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>0</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -44,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -69,7 +72,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,19 +84,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>0</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -103,7 +104,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,15 +111,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{FB719AED-B52D-491B-945C-72BA81FA62CC}">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -127,9 +125,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,15 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{71A49538-0A02-4D10-BD88-7CB385A4EA18}">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -153,9 +147,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -169,19 +161,18 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>0</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -190,7 +181,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,13 +189,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0:
@@ -214,14 +203,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -230,7 +218,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -239,14 +226,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="M5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -255,7 +241,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -263,14 +248,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:</t>
@@ -279,7 +263,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -295,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -372,6 +355,9 @@
     <t>boss的怪物id</t>
   </si>
   <si>
+    <t xml:space="preserve">通关条件 </t>
+  </si>
+  <si>
     <t>通关值</t>
   </si>
   <si>
@@ -381,114 +367,107 @@
     <t>{"200004":1}</t>
   </si>
   <si>
-    <t>Res</t>
+    <t>MonsterId</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>BloRate</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>SpawnPointRound</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>怪物数据</t>
+  </si>
+  <si>
+    <t>怪物名字</t>
   </si>
   <si>
     <t>怪物id</t>
   </si>
   <si>
-    <t>怪物名字</t>
-  </si>
-  <si>
-    <t>资源</t>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>防御率</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>怪物类型</t>
   </si>
   <si>
     <t>噬人花</t>
   </si>
   <si>
-    <t>Assets/Res/Game/Prefab/Monster.prefab</t>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1,1</t>
   </si>
   <si>
     <t>蛮荒猪</t>
   </si>
   <si>
+    <t>1,9</t>
+  </si>
+  <si>
     <t>眼魔怪</t>
   </si>
   <si>
+    <t>1,17</t>
+  </si>
+  <si>
     <t>幽狼鬼</t>
-  </si>
-  <si>
-    <t>MonsterId</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Atk</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>BloRate</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>SpawnPointRound</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>怪物数据</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>防御率</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>怪物类型</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关条件 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,7 +479,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,47 +486,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +658,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -570,9 +853,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -596,10 +1121,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -614,81 +1190,63 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I6" totalsRowShown="0">
-  <autoFilter ref="C3:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:I6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:I6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Map"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SpawnPoint"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LevelId"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxNum"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="Map"/>
+    <tableColumn id="5" name="SpawnPoint"/>
+    <tableColumn id="6" name="LevelId"/>
+    <tableColumn id="7" name="MaxNum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="C3:G6" totalsRowShown="0">
-  <autoFilter ref="C3:G6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C3:G6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:G6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Monsters" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="BossId"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ConditionType"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ConditionValue"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Monsters" dataDxfId="0"/>
+    <tableColumn id="3" name="BossId"/>
+    <tableColumn id="4" name="ConditionType"/>
+    <tableColumn id="5" name="ConditionValue"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表3" displayName="表3" ref="C3:E9" totalsRowShown="0">
-  <autoFilter ref="C3:E9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Res"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表4" displayName="表4" ref="C3:O9" totalsRowShown="0">
-  <autoFilter ref="C3:O9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="C3:O9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:O9" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="MonsterId"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Hp"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Atk"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Def"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="BloRate" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="MoveSpeed"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="AttackSpeed" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SpawnPointRound"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="SpawnPoint"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Type"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="MonsterId"/>
+    <tableColumn id="4" name="Level"/>
+    <tableColumn id="5" name="Hp"/>
+    <tableColumn id="6" name="Atk"/>
+    <tableColumn id="7" name="Def"/>
+    <tableColumn id="13" name="BloRate" dataDxfId="1"/>
+    <tableColumn id="8" name="MoveSpeed"/>
+    <tableColumn id="12" name="AttackSpeed" dataDxfId="2"/>
+    <tableColumn id="9" name="SpawnPointRound"/>
+    <tableColumn id="11" name="SpawnPoint"/>
+    <tableColumn id="10" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,26 +1496,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="6" max="6" width="39.375" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:9">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9">
       <c r="C6">
         <v>10001</v>
       </c>
@@ -1050,25 +1608,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="40.375" style="4" customWidth="1"/>
@@ -1077,7 +1636,7 @@
     <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -1122,21 +1681,21 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7">
       <c r="C6">
         <v>50001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1146,124 +1705,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C3:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6">
-        <v>100001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7">
-        <v>100002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C8">
-        <v>100003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C9">
-        <v>100004</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C3:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
@@ -1275,7 +1735,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="3:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,40 +1743,40 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="3:15">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1342,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -1357,53 +1817,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="3:15">
       <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="M5" t="s">
         <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="3:15">
       <c r="C6">
         <v>200001</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>100001</v>
@@ -1430,21 +1890,21 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" spans="3:15">
       <c r="C7">
         <v>200002</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>100002</v>
@@ -1471,21 +1931,21 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" spans="3:15">
       <c r="C8">
         <v>200003</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>100003</v>
@@ -1512,21 +1972,21 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" spans="3:15">
       <c r="C9">
         <v>200004</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>100004</v>
@@ -1557,11 +2017,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>